--- a/main/data/str_int_atoi.xlsx
+++ b/main/data/str_int_atoi.xlsx
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.68669891357422</v>
+        <v>16.97111129760742</v>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.80996131896973</v>
+        <v>16.42203330993652</v>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.56398582458496</v>
+        <v>17.31395721435547</v>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18.1879997253418</v>
+        <v>17.78888702392578</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18.53799819946289</v>
+        <v>16.91699028015137</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>

--- a/main/data/str_int_atoi.xlsx
+++ b/main/data/str_int_atoi.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Memory Usage (mb)</t>
+          <t>Memory Usage (bytes)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.97111129760742</v>
+        <v>18.01490783691406</v>
       </c>
       <c r="D2" t="n">
         <v>174</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.42203330993652</v>
+        <v>16.25180244445801</v>
       </c>
       <c r="D3" t="n">
         <v>175</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17.31395721435547</v>
+        <v>16.78109169006348</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17.78888702392578</v>
+        <v>16.17884635925293</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.91699028015137</v>
+        <v>15.8839225769043</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>

--- a/main/data/str_int_atoi.xlsx
+++ b/main/data/str_int_atoi.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.01490783691406</v>
+        <v>18.63908767700195</v>
       </c>
       <c r="D2" t="n">
         <v>174</v>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.25180244445801</v>
+        <v>17.25101470947266</v>
       </c>
       <c r="D3" t="n">
         <v>175</v>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16.78109169006348</v>
+        <v>17.14611053466797</v>
       </c>
       <c r="D4" t="n">
         <v>176</v>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16.17884635925293</v>
+        <v>16.89291000366211</v>
       </c>
       <c r="D5" t="n">
         <v>123</v>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15.8839225769043</v>
+        <v>17.42100715637207</v>
       </c>
       <c r="D6" t="n">
         <v>123</v>
